--- a/ORACLE.xlsx
+++ b/ORACLE.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$E$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$E$75</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="81">
   <si>
     <t>Nr</t>
   </si>
@@ -249,12 +249,6 @@
     <t>Zdarzenie_Ksiegowe</t>
   </si>
   <si>
-    <t>Lacznik_K_L</t>
-  </si>
-  <si>
-    <t>ID_Kierownictwa</t>
-  </si>
-  <si>
     <t>Start_przypisania</t>
   </si>
   <si>
@@ -268,6 +262,9 @@
   </si>
   <si>
     <t>Lacznik_Z_L</t>
+  </si>
+  <si>
+    <t>ID_Roli</t>
   </si>
 </sst>
 </file>
@@ -601,10 +598,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -772,7 +769,7 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1213,13 +1210,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1227,7 +1224,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>31</v>
@@ -1241,13 +1238,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1255,7 +1252,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>25</v>
@@ -1268,28 +1265,28 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>9</v>
@@ -1300,7 +1297,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>31</v>
@@ -1313,90 +1310,90 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
@@ -1407,10 +1404,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
@@ -1420,11 +1417,14 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
@@ -1434,14 +1434,11 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
@@ -1452,10 +1449,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
@@ -1466,13 +1463,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1480,13 +1477,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1494,7 +1491,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>31</v>
@@ -1507,59 +1504,59 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>9</v>
@@ -1570,13 +1567,13 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1584,7 +1581,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>25</v>
@@ -1598,7 +1595,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>25</v>
@@ -1612,7 +1609,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>25</v>
@@ -1626,10 +1623,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>26</v>
@@ -1639,11 +1636,14 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C66" s="1" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>26</v>
@@ -1653,62 +1653,62 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
+      <c r="B68" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C68" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1716,7 +1716,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>7</v>
@@ -1732,14 +1732,11 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>9</v>
@@ -1750,7 +1747,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>31</v>
@@ -1764,13 +1761,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1778,7 +1775,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>25</v>
@@ -1787,43 +1784,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C76" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>31</v>
@@ -1832,26 +1829,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>25</v>
@@ -1860,110 +1857,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E81"/>
+  <autoFilter ref="A1:E75"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>